--- a/solutions/ch-4-solutions.xlsx
+++ b/solutions/ch-4-solutions.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F92D4-9B63-4832-8B31-4FD9FCF0060C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD5680-C98E-4FF5-A7BB-24493D0431B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ais" sheetId="1" r:id="rId1"/>
-    <sheet name="q1" sheetId="2" r:id="rId2"/>
-    <sheet name="q2" sheetId="3" r:id="rId3"/>
-    <sheet name="q3" sheetId="4" r:id="rId4"/>
-    <sheet name="q4" sheetId="5" r:id="rId5"/>
+    <sheet name="Q1" sheetId="2" r:id="rId2"/>
+    <sheet name="Q2" sheetId="3" r:id="rId3"/>
+    <sheet name="Q3" sheetId="4" r:id="rId4"/>
+    <sheet name="Q4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="59">
   <si>
     <t>rcc</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>One unit change in height results in a 1.12 unit change in weight.</t>
+  </si>
+  <si>
+    <t>This is a positive, linear relationship.</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -736,13 +739,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5093,10 +5097,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5396,8 +5396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.6"/>
@@ -14101,10 +14102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB75BC3-66A0-4AA6-87D1-0277007419C2}">
-  <dimension ref="G1"/>
+  <dimension ref="G1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.6"/>
@@ -14112,6 +14113,11 @@
     <row r="1" spans="7:7" x14ac:dyDescent="0.6">
       <c r="G1" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7" x14ac:dyDescent="0.6">
+      <c r="G4" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -14124,7 +14130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3B3C9-97D8-4317-958F-A28774114F39}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.6"/>
   <cols>
@@ -14135,7 +14141,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.6">
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -14146,10 +14152,10 @@
     </row>
     <row r="16" spans="1:7" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
@@ -14163,7 +14169,7 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.60985490065677328</v>
       </c>
       <c r="C19" t="s">
@@ -14328,7 +14334,7 @@
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>1.1171237435064447</v>
       </c>
       <c r="C32" s="2">
@@ -14337,7 +14343,7 @@
       <c r="D32" s="2">
         <v>17.681340139071505</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>9.5393708923651448E-43</v>
       </c>
       <c r="F32" s="2">

--- a/solutions/ch-4-solutions.xlsx
+++ b/solutions/ch-4-solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD5680-C98E-4FF5-A7BB-24493D0431B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87ED6E0-E85D-452D-881F-880CED6BEF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-1047" windowWidth="25786" windowHeight="14587" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ais" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="61">
   <si>
     <t>rcc</t>
   </si>
@@ -205,13 +205,19 @@
     <t>&lt;- 60.9% of the variability in Y is explained by X.</t>
   </si>
   <si>
-    <t>There is a significant influence</t>
-  </si>
-  <si>
     <t>One unit change in height results in a 1.12 unit change in weight.</t>
   </si>
   <si>
     <t>This is a positive, linear relationship.</t>
+  </si>
+  <si>
+    <t>There is a significant influence.</t>
+  </si>
+  <si>
+    <t>The slope of the line is 1.11.</t>
+  </si>
+  <si>
+    <t>This equation can also be found in our regression output, but that also has p-values.</t>
   </si>
 </sst>
 </file>
@@ -5396,7 +5402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -14117,7 +14123,7 @@
     </row>
     <row r="4" spans="7:7" x14ac:dyDescent="0.6">
       <c r="G4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -14128,9 +14134,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3B3C9-97D8-4317-958F-A28774114F39}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.6"/>
   <cols>
@@ -14145,6 +14151,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>31</v>
@@ -14361,12 +14372,17 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.6">
       <c r="E33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B35" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
